--- a/Data_frame/balancos_definitivos/AZEV4.xlsx
+++ b/Data_frame/balancos_definitivos/AZEV4.xlsx
@@ -879,7 +879,7 @@
         <v>56554</v>
       </c>
       <c r="AT2" t="n">
-        <v>2140327.04</v>
+        <v>56752</v>
       </c>
       <c r="AU2" t="n">
         <v>61710</v>
@@ -894,31 +894,31 @@
         <v>44722</v>
       </c>
       <c r="AY2" t="n">
-        <v>1971955.968</v>
+        <v>170210</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1862403.968</v>
+        <v>419107.008</v>
       </c>
       <c r="BA2" t="n">
-        <v>1782477.056</v>
+        <v>454956.992</v>
       </c>
       <c r="BB2" t="n">
-        <v>1755384.064</v>
+        <v>466692.992</v>
       </c>
       <c r="BC2" t="n">
-        <v>1725870.976</v>
+        <v>495857.984</v>
       </c>
       <c r="BD2" t="n">
-        <v>1746464</v>
+        <v>546838.0159999999</v>
       </c>
       <c r="BE2" t="n">
-        <v>1743289.984</v>
+        <v>581398.0159999999</v>
       </c>
       <c r="BF2" t="n">
-        <v>1422974.976</v>
+        <v>614574.976</v>
       </c>
       <c r="BG2" t="n">
-        <v>1345601.024</v>
+        <v>601574.0159999999</v>
       </c>
       <c r="BH2" t="n">
         <v>724476.992</v>
@@ -1066,7 +1066,7 @@
         <v>30739</v>
       </c>
       <c r="AT3" t="n">
-        <v>790259.008</v>
+        <v>32737</v>
       </c>
       <c r="AU3" t="n">
         <v>34784</v>
@@ -1081,31 +1081,31 @@
         <v>27963</v>
       </c>
       <c r="AY3" t="n">
-        <v>749627.008</v>
+        <v>88265</v>
       </c>
       <c r="AZ3" t="n">
-        <v>658848</v>
+        <v>117526</v>
       </c>
       <c r="BA3" t="n">
-        <v>597457.9840000001</v>
+        <v>135832.992</v>
       </c>
       <c r="BB3" t="n">
-        <v>631942.976</v>
+        <v>145920</v>
       </c>
       <c r="BC3" t="n">
-        <v>633342.976</v>
+        <v>161260</v>
       </c>
       <c r="BD3" t="n">
-        <v>667590.0159999999</v>
+        <v>179372.992</v>
       </c>
       <c r="BE3" t="n">
-        <v>672625.024</v>
+        <v>221990</v>
       </c>
       <c r="BF3" t="n">
-        <v>380904</v>
+        <v>256756.992</v>
       </c>
       <c r="BG3" t="n">
-        <v>358361.984</v>
+        <v>242711.008</v>
       </c>
       <c r="BH3" t="n">
         <v>156636</v>
@@ -1253,7 +1253,7 @@
         <v>20</v>
       </c>
       <c r="AT4" t="n">
-        <v>28168</v>
+        <v>31</v>
       </c>
       <c r="AU4" t="n">
         <v>190</v>
@@ -1268,31 +1268,31 @@
         <v>1530</v>
       </c>
       <c r="AY4" t="n">
-        <v>30526</v>
+        <v>58727</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11137</v>
+        <v>19339</v>
       </c>
       <c r="BA4" t="n">
-        <v>9246</v>
+        <v>17476</v>
       </c>
       <c r="BB4" t="n">
-        <v>3221</v>
+        <v>17562</v>
       </c>
       <c r="BC4" t="n">
-        <v>26226</v>
+        <v>15994</v>
       </c>
       <c r="BD4" t="n">
-        <v>7767</v>
+        <v>11671</v>
       </c>
       <c r="BE4" t="n">
-        <v>5148</v>
+        <v>5093</v>
       </c>
       <c r="BF4" t="n">
-        <v>1904</v>
+        <v>8980</v>
       </c>
       <c r="BG4" t="n">
-        <v>1942</v>
+        <v>1821</v>
       </c>
       <c r="BH4" t="n">
         <v>2090</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>46966</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>140436</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>110340</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>72122</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>94621</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>101359</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>160338</v>
+        <v>0</v>
       </c>
       <c r="BE5" t="n">
-        <v>143324</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>138090</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>132821</v>
+        <v>0</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>10513</v>
       </c>
       <c r="AT6" t="n">
-        <v>234110</v>
+        <v>2747</v>
       </c>
       <c r="AU6" t="n">
         <v>3921</v>
@@ -1642,31 +1642,31 @@
         <v>4450</v>
       </c>
       <c r="AY6" t="n">
-        <v>213818</v>
+        <v>3941</v>
       </c>
       <c r="AZ6" t="n">
-        <v>196147.008</v>
+        <v>43986</v>
       </c>
       <c r="BA6" t="n">
-        <v>187414</v>
+        <v>46400</v>
       </c>
       <c r="BB6" t="n">
-        <v>189948</v>
+        <v>54660</v>
       </c>
       <c r="BC6" t="n">
-        <v>173252</v>
+        <v>72293</v>
       </c>
       <c r="BD6" t="n">
-        <v>170316</v>
+        <v>91869</v>
       </c>
       <c r="BE6" t="n">
-        <v>183860</v>
+        <v>128898</v>
       </c>
       <c r="BF6" t="n">
-        <v>85665</v>
+        <v>151204.992</v>
       </c>
       <c r="BG6" t="n">
-        <v>63295</v>
+        <v>156499.008</v>
       </c>
       <c r="BH6" t="n">
         <v>80915</v>
@@ -1814,7 +1814,7 @@
         <v>19489</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>19545</v>
       </c>
       <c r="AU7" t="n">
         <v>19708</v>
@@ -1829,31 +1829,31 @@
         <v>18828</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>18329</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>37374</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>48914</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>53681</v>
       </c>
       <c r="BC7" t="n">
-        <v>0</v>
+        <v>42441</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>43211</v>
       </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>45074</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>29869</v>
       </c>
       <c r="BG7" t="n">
-        <v>0</v>
+        <v>26720</v>
       </c>
       <c r="BH7" t="n">
         <v>24310</v>
@@ -2203,31 +2203,31 @@
         <v>707</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>8878</v>
       </c>
       <c r="BA9" t="n">
-        <v>0</v>
+        <v>12419</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>9252</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>19903</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>22765</v>
       </c>
       <c r="BE9" t="n">
-        <v>0</v>
+        <v>31203</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>32625</v>
       </c>
       <c r="BG9" t="n">
-        <v>0</v>
+        <v>30033</v>
       </c>
       <c r="BH9" t="n">
         <v>31584</v>
@@ -2375,7 +2375,7 @@
         <v>80</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AU10" t="n">
         <v>28</v>
@@ -2390,31 +2390,31 @@
         <v>18</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>1815</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>1965</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>3222</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>3767</v>
       </c>
       <c r="BE10" t="n">
-        <v>0</v>
+        <v>4680</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>3967</v>
       </c>
       <c r="BG10" t="n">
-        <v>0</v>
+        <v>3113</v>
       </c>
       <c r="BH10" t="n">
         <v>2201</v>
@@ -2562,7 +2562,7 @@
         <v>637</v>
       </c>
       <c r="AT11" t="n">
-        <v>481015.008</v>
+        <v>10361</v>
       </c>
       <c r="AU11" t="n">
         <v>10937</v>
@@ -2577,31 +2577,31 @@
         <v>2430</v>
       </c>
       <c r="AY11" t="n">
-        <v>364847.008</v>
+        <v>6125</v>
       </c>
       <c r="AZ11" t="n">
-        <v>341224</v>
+        <v>7456</v>
       </c>
       <c r="BA11" t="n">
-        <v>328676</v>
+        <v>8809</v>
       </c>
       <c r="BB11" t="n">
-        <v>344152.992</v>
+        <v>8800</v>
       </c>
       <c r="BC11" t="n">
-        <v>332505.984</v>
+        <v>7407</v>
       </c>
       <c r="BD11" t="n">
-        <v>329168.992</v>
+        <v>6090</v>
       </c>
       <c r="BE11" t="n">
-        <v>340292.992</v>
+        <v>7042</v>
       </c>
       <c r="BF11" t="n">
-        <v>155244.992</v>
+        <v>30111</v>
       </c>
       <c r="BG11" t="n">
-        <v>160304</v>
+        <v>24525</v>
       </c>
       <c r="BH11" t="n">
         <v>15536</v>
@@ -2749,7 +2749,7 @@
         <v>8248</v>
       </c>
       <c r="AT12" t="n">
-        <v>785280</v>
+        <v>8248</v>
       </c>
       <c r="AU12" t="n">
         <v>11637</v>
@@ -2764,31 +2764,31 @@
         <v>5703</v>
       </c>
       <c r="AY12" t="n">
-        <v>678406.976</v>
+        <v>41390</v>
       </c>
       <c r="AZ12" t="n">
-        <v>658080</v>
+        <v>1243</v>
       </c>
       <c r="BA12" t="n">
-        <v>641747.008</v>
+        <v>20125</v>
       </c>
       <c r="BB12" t="n">
-        <v>581016</v>
+        <v>28671</v>
       </c>
       <c r="BC12" t="n">
-        <v>550649.9840000001</v>
+        <v>57605</v>
       </c>
       <c r="BD12" t="n">
-        <v>544412.992</v>
+        <v>76312</v>
       </c>
       <c r="BE12" t="n">
-        <v>542732.032</v>
+        <v>73231</v>
       </c>
       <c r="BF12" t="n">
-        <v>509071.008</v>
+        <v>75515</v>
       </c>
       <c r="BG12" t="n">
-        <v>454116</v>
+        <v>84748</v>
       </c>
       <c r="BH12" t="n">
         <v>116592</v>
@@ -3497,7 +3497,7 @@
         <v>4033</v>
       </c>
       <c r="AT16" t="n">
-        <v>489292.992</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3512,31 +3512,31 @@
         <v>1488</v>
       </c>
       <c r="AY16" t="n">
-        <v>391952.992</v>
+        <v>41390</v>
       </c>
       <c r="AZ16" t="n">
-        <v>356692.992</v>
+        <v>1243</v>
       </c>
       <c r="BA16" t="n">
-        <v>327988</v>
+        <v>2513</v>
       </c>
       <c r="BB16" t="n">
-        <v>297415.008</v>
+        <v>1313</v>
       </c>
       <c r="BC16" t="n">
-        <v>275556</v>
+        <v>4017</v>
       </c>
       <c r="BD16" t="n">
-        <v>254955.008</v>
+        <v>1367</v>
       </c>
       <c r="BE16" t="n">
-        <v>250382</v>
+        <v>1268</v>
       </c>
       <c r="BF16" t="n">
-        <v>99438</v>
+        <v>170</v>
       </c>
       <c r="BG16" t="n">
-        <v>90597</v>
+        <v>2279</v>
       </c>
       <c r="BH16" t="n">
         <v>2279</v>
@@ -3684,7 +3684,7 @@
         <v>4215</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>8248</v>
       </c>
       <c r="AU17" t="n">
         <v>11637</v>
@@ -4079,25 +4079,25 @@
         <v>0</v>
       </c>
       <c r="BA19" t="n">
-        <v>0</v>
+        <v>17612</v>
       </c>
       <c r="BB19" t="n">
-        <v>0</v>
+        <v>27358</v>
       </c>
       <c r="BC19" t="n">
-        <v>0</v>
+        <v>53588</v>
       </c>
       <c r="BD19" t="n">
-        <v>0</v>
+        <v>74945</v>
       </c>
       <c r="BE19" t="n">
-        <v>0</v>
+        <v>71963</v>
       </c>
       <c r="BF19" t="n">
-        <v>0</v>
+        <v>75345</v>
       </c>
       <c r="BG19" t="n">
-        <v>0</v>
+        <v>82469</v>
       </c>
       <c r="BH19" t="n">
         <v>114313</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>27619</v>
+        <v>0</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -4634,31 +4634,31 @@
         <v>0</v>
       </c>
       <c r="AY22" t="n">
-        <v>21042</v>
+        <v>40251</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22101</v>
+        <v>40251</v>
       </c>
       <c r="BA22" t="n">
-        <v>21242</v>
+        <v>45000</v>
       </c>
       <c r="BB22" t="n">
-        <v>21697</v>
+        <v>45000</v>
       </c>
       <c r="BC22" t="n">
-        <v>21745</v>
+        <v>45000</v>
       </c>
       <c r="BD22" t="n">
-        <v>23836</v>
+        <v>45000</v>
       </c>
       <c r="BE22" t="n">
-        <v>17728</v>
+        <v>51600</v>
       </c>
       <c r="BF22" t="n">
-        <v>23250</v>
+        <v>69410</v>
       </c>
       <c r="BG22" t="n">
-        <v>23932</v>
+        <v>69410</v>
       </c>
       <c r="BH22" t="n">
         <v>69410</v>
@@ -4806,7 +4806,7 @@
         <v>17494</v>
       </c>
       <c r="AT23" t="n">
-        <v>27667</v>
+        <v>15717</v>
       </c>
       <c r="AU23" t="n">
         <v>15253</v>
@@ -4821,31 +4821,31 @@
         <v>11056</v>
       </c>
       <c r="AY23" t="n">
-        <v>22070</v>
+        <v>304</v>
       </c>
       <c r="AZ23" t="n">
-        <v>21757</v>
+        <v>60585</v>
       </c>
       <c r="BA23" t="n">
-        <v>20864</v>
+        <v>60652</v>
       </c>
       <c r="BB23" t="n">
-        <v>19951</v>
+        <v>60492</v>
       </c>
       <c r="BC23" t="n">
-        <v>19486</v>
+        <v>59099</v>
       </c>
       <c r="BD23" t="n">
-        <v>10109</v>
+        <v>79974</v>
       </c>
       <c r="BE23" t="n">
-        <v>9820</v>
+        <v>75186</v>
       </c>
       <c r="BF23" t="n">
-        <v>9403</v>
+        <v>60243</v>
       </c>
       <c r="BG23" t="n">
-        <v>9011</v>
+        <v>58794</v>
       </c>
       <c r="BH23" t="n">
         <v>242630</v>
@@ -4993,7 +4993,7 @@
         <v>73</v>
       </c>
       <c r="AT24" t="n">
-        <v>509502.016</v>
+        <v>50</v>
       </c>
       <c r="AU24" t="n">
         <v>36</v>
@@ -5008,31 +5008,31 @@
         <v>0</v>
       </c>
       <c r="AY24" t="n">
-        <v>500809.984</v>
+        <v>0</v>
       </c>
       <c r="AZ24" t="n">
-        <v>501617.984</v>
+        <v>199502</v>
       </c>
       <c r="BA24" t="n">
-        <v>501166.016</v>
+        <v>193347.008</v>
       </c>
       <c r="BB24" t="n">
-        <v>500776.992</v>
+        <v>186610</v>
       </c>
       <c r="BC24" t="n">
-        <v>500647.008</v>
+        <v>172894</v>
       </c>
       <c r="BD24" t="n">
-        <v>500516</v>
+        <v>166179.008</v>
       </c>
       <c r="BE24" t="n">
-        <v>500384.992</v>
+        <v>159391.008</v>
       </c>
       <c r="BF24" t="n">
-        <v>500347.008</v>
+        <v>152650</v>
       </c>
       <c r="BG24" t="n">
-        <v>500180</v>
+        <v>145911.008</v>
       </c>
       <c r="BH24" t="n">
         <v>139208.992</v>
@@ -5367,7 +5367,7 @@
         <v>56554</v>
       </c>
       <c r="AT26" t="n">
-        <v>2140327.04</v>
+        <v>56752</v>
       </c>
       <c r="AU26" t="n">
         <v>61710</v>
@@ -5382,31 +5382,31 @@
         <v>44722</v>
       </c>
       <c r="AY26" t="n">
-        <v>1971955.968</v>
+        <v>170210</v>
       </c>
       <c r="AZ26" t="n">
-        <v>1862403.968</v>
+        <v>419107.008</v>
       </c>
       <c r="BA26" t="n">
-        <v>1782477.056</v>
+        <v>454956.992</v>
       </c>
       <c r="BB26" t="n">
-        <v>1755384.064</v>
+        <v>466692.992</v>
       </c>
       <c r="BC26" t="n">
-        <v>1725870.976</v>
+        <v>495857.984</v>
       </c>
       <c r="BD26" t="n">
-        <v>1746464</v>
+        <v>546838.0159999999</v>
       </c>
       <c r="BE26" t="n">
-        <v>1743289.984</v>
+        <v>581398.0159999999</v>
       </c>
       <c r="BF26" t="n">
-        <v>1422974.976</v>
+        <v>614574.976</v>
       </c>
       <c r="BG26" t="n">
-        <v>1345601.024</v>
+        <v>601574.0159999999</v>
       </c>
       <c r="BH26" t="n">
         <v>724476.992</v>
@@ -5554,7 +5554,7 @@
         <v>216500.992</v>
       </c>
       <c r="AT27" t="n">
-        <v>621169.9840000001</v>
+        <v>216058</v>
       </c>
       <c r="AU27" t="n">
         <v>232592.992</v>
@@ -5569,31 +5569,31 @@
         <v>26344</v>
       </c>
       <c r="AY27" t="n">
-        <v>661939.968</v>
+        <v>18231</v>
       </c>
       <c r="AZ27" t="n">
-        <v>682288</v>
+        <v>97784</v>
       </c>
       <c r="BA27" t="n">
-        <v>719715.008</v>
+        <v>143696.992</v>
       </c>
       <c r="BB27" t="n">
-        <v>1394621.056</v>
+        <v>170139.008</v>
       </c>
       <c r="BC27" t="n">
-        <v>918736</v>
+        <v>193404.992</v>
       </c>
       <c r="BD27" t="n">
-        <v>1203614.976</v>
+        <v>228220.992</v>
       </c>
       <c r="BE27" t="n">
-        <v>1293378.048</v>
+        <v>281812</v>
       </c>
       <c r="BF27" t="n">
-        <v>1204200.96</v>
+        <v>323894.016</v>
       </c>
       <c r="BG27" t="n">
-        <v>1288615.936</v>
+        <v>281595.008</v>
       </c>
       <c r="BH27" t="n">
         <v>318015.008</v>
@@ -5741,7 +5741,7 @@
         <v>57419</v>
       </c>
       <c r="AT28" t="n">
-        <v>41055</v>
+        <v>58551</v>
       </c>
       <c r="AU28" t="n">
         <v>63777</v>
@@ -5756,31 +5756,31 @@
         <v>6948</v>
       </c>
       <c r="AY28" t="n">
-        <v>48146</v>
+        <v>1849</v>
       </c>
       <c r="AZ28" t="n">
-        <v>48140</v>
+        <v>25614</v>
       </c>
       <c r="BA28" t="n">
-        <v>54919</v>
+        <v>31287</v>
       </c>
       <c r="BB28" t="n">
-        <v>62946</v>
+        <v>40425</v>
       </c>
       <c r="BC28" t="n">
-        <v>55371</v>
+        <v>63453</v>
       </c>
       <c r="BD28" t="n">
-        <v>67989</v>
+        <v>57296</v>
       </c>
       <c r="BE28" t="n">
-        <v>74920</v>
+        <v>71767</v>
       </c>
       <c r="BF28" t="n">
-        <v>53279</v>
+        <v>89438</v>
       </c>
       <c r="BG28" t="n">
-        <v>56931</v>
+        <v>66622</v>
       </c>
       <c r="BH28" t="n">
         <v>72420</v>
@@ -5928,7 +5928,7 @@
         <v>30145</v>
       </c>
       <c r="AT29" t="n">
-        <v>99993</v>
+        <v>30002</v>
       </c>
       <c r="AU29" t="n">
         <v>26698</v>
@@ -5943,31 +5943,31 @@
         <v>6807</v>
       </c>
       <c r="AY29" t="n">
-        <v>98202</v>
+        <v>5470</v>
       </c>
       <c r="AZ29" t="n">
-        <v>57350</v>
+        <v>27639</v>
       </c>
       <c r="BA29" t="n">
-        <v>42904</v>
+        <v>32513</v>
       </c>
       <c r="BB29" t="n">
-        <v>52872</v>
+        <v>43367</v>
       </c>
       <c r="BC29" t="n">
-        <v>50263</v>
+        <v>33933</v>
       </c>
       <c r="BD29" t="n">
-        <v>46381</v>
+        <v>39844</v>
       </c>
       <c r="BE29" t="n">
-        <v>38330</v>
+        <v>65004</v>
       </c>
       <c r="BF29" t="n">
-        <v>42060</v>
+        <v>85663</v>
       </c>
       <c r="BG29" t="n">
-        <v>43692</v>
+        <v>75551</v>
       </c>
       <c r="BH29" t="n">
         <v>73739</v>
@@ -6115,7 +6115,7 @@
         <v>65049</v>
       </c>
       <c r="AT30" t="n">
-        <v>0</v>
+        <v>66712</v>
       </c>
       <c r="AU30" t="n">
         <v>68232</v>
@@ -6130,31 +6130,31 @@
         <v>10204</v>
       </c>
       <c r="AY30" t="n">
-        <v>0</v>
+        <v>3350</v>
       </c>
       <c r="AZ30" t="n">
-        <v>0</v>
+        <v>17637</v>
       </c>
       <c r="BA30" t="n">
-        <v>0</v>
+        <v>21538</v>
       </c>
       <c r="BB30" t="n">
-        <v>0</v>
+        <v>26083</v>
       </c>
       <c r="BC30" t="n">
-        <v>0</v>
+        <v>35156</v>
       </c>
       <c r="BD30" t="n">
-        <v>0</v>
+        <v>43273</v>
       </c>
       <c r="BE30" t="n">
-        <v>0</v>
+        <v>64794</v>
       </c>
       <c r="BF30" t="n">
-        <v>0</v>
+        <v>72025</v>
       </c>
       <c r="BG30" t="n">
-        <v>0</v>
+        <v>78743</v>
       </c>
       <c r="BH30" t="n">
         <v>134838</v>
@@ -6302,7 +6302,7 @@
         <v>34027</v>
       </c>
       <c r="AT31" t="n">
-        <v>88321</v>
+        <v>30514</v>
       </c>
       <c r="AU31" t="n">
         <v>30748</v>
@@ -6317,31 +6317,31 @@
         <v>0</v>
       </c>
       <c r="AY31" t="n">
-        <v>104688</v>
+        <v>0</v>
       </c>
       <c r="AZ31" t="n">
-        <v>107818</v>
+        <v>19007</v>
       </c>
       <c r="BA31" t="n">
-        <v>111515</v>
+        <v>30333</v>
       </c>
       <c r="BB31" t="n">
-        <v>713113.9840000001</v>
+        <v>32181</v>
       </c>
       <c r="BC31" t="n">
-        <v>226247.008</v>
+        <v>35258</v>
       </c>
       <c r="BD31" t="n">
-        <v>405208</v>
+        <v>50841</v>
       </c>
       <c r="BE31" t="n">
-        <v>468067.008</v>
+        <v>48757</v>
       </c>
       <c r="BF31" t="n">
-        <v>530264.992</v>
+        <v>42826</v>
       </c>
       <c r="BG31" t="n">
-        <v>610729.9840000001</v>
+        <v>34020</v>
       </c>
       <c r="BH31" t="n">
         <v>29816</v>
@@ -6676,7 +6676,7 @@
         <v>36</v>
       </c>
       <c r="AT33" t="n">
-        <v>1482</v>
+        <v>36</v>
       </c>
       <c r="AU33" t="n">
         <v>36</v>
@@ -6863,7 +6863,7 @@
         <v>29825</v>
       </c>
       <c r="AT34" t="n">
-        <v>362577.008</v>
+        <v>30243</v>
       </c>
       <c r="AU34" t="n">
         <v>43102</v>
@@ -6878,31 +6878,31 @@
         <v>2385</v>
       </c>
       <c r="AY34" t="n">
-        <v>380905.984</v>
+        <v>7562</v>
       </c>
       <c r="AZ34" t="n">
-        <v>438012.992</v>
+        <v>7887</v>
       </c>
       <c r="BA34" t="n">
-        <v>478238.016</v>
+        <v>28026</v>
       </c>
       <c r="BB34" t="n">
-        <v>534632.992</v>
+        <v>28083</v>
       </c>
       <c r="BC34" t="n">
-        <v>569888</v>
+        <v>25605</v>
       </c>
       <c r="BD34" t="n">
-        <v>652987.008</v>
+        <v>36967</v>
       </c>
       <c r="BE34" t="n">
-        <v>691689.024</v>
+        <v>31490</v>
       </c>
       <c r="BF34" t="n">
-        <v>576028.992</v>
+        <v>33942</v>
       </c>
       <c r="BG34" t="n">
-        <v>507188.992</v>
+        <v>26659</v>
       </c>
       <c r="BH34" t="n">
         <v>7202</v>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>27742</v>
+        <v>0</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -7065,31 +7065,31 @@
         <v>0</v>
       </c>
       <c r="AY35" t="n">
-        <v>29998</v>
+        <v>0</v>
       </c>
       <c r="AZ35" t="n">
-        <v>30967</v>
+        <v>0</v>
       </c>
       <c r="BA35" t="n">
-        <v>32139</v>
+        <v>0</v>
       </c>
       <c r="BB35" t="n">
-        <v>31056</v>
+        <v>0</v>
       </c>
       <c r="BC35" t="n">
-        <v>16967</v>
+        <v>0</v>
       </c>
       <c r="BD35" t="n">
-        <v>31050</v>
+        <v>0</v>
       </c>
       <c r="BE35" t="n">
-        <v>20372</v>
+        <v>0</v>
       </c>
       <c r="BF35" t="n">
-        <v>2568</v>
+        <v>0</v>
       </c>
       <c r="BG35" t="n">
-        <v>1504</v>
+        <v>0</v>
       </c>
       <c r="BH35" t="n">
         <v>0</v>
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="BG36" t="n">
-        <v>68570</v>
+        <v>0</v>
       </c>
       <c r="BH36" t="n">
         <v>0</v>
@@ -7424,7 +7424,7 @@
         <v>89009</v>
       </c>
       <c r="AT37" t="n">
-        <v>1248205.952</v>
+        <v>91713</v>
       </c>
       <c r="AU37" t="n">
         <v>92408</v>
@@ -7439,31 +7439,31 @@
         <v>93514</v>
       </c>
       <c r="AY37" t="n">
-        <v>1176051.968</v>
+        <v>107395</v>
       </c>
       <c r="AZ37" t="n">
-        <v>1167320.064</v>
+        <v>214352</v>
       </c>
       <c r="BA37" t="n">
-        <v>1134093.952</v>
+        <v>192614</v>
       </c>
       <c r="BB37" t="n">
-        <v>543796.992</v>
+        <v>195468</v>
       </c>
       <c r="BC37" t="n">
-        <v>1102187.008</v>
+        <v>177806</v>
       </c>
       <c r="BD37" t="n">
-        <v>935313.024</v>
+        <v>221616.992</v>
       </c>
       <c r="BE37" t="n">
-        <v>898214.0159999999</v>
+        <v>222675.008</v>
       </c>
       <c r="BF37" t="n">
-        <v>729113.024</v>
+        <v>171458</v>
       </c>
       <c r="BG37" t="n">
-        <v>686729.9840000001</v>
+        <v>179966</v>
       </c>
       <c r="BH37" t="n">
         <v>89342</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="AT38" t="n">
-        <v>896753.9840000001</v>
+        <v>0</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -7626,31 +7626,31 @@
         <v>0</v>
       </c>
       <c r="AY38" t="n">
-        <v>834436.992</v>
+        <v>0</v>
       </c>
       <c r="AZ38" t="n">
-        <v>826673.024</v>
+        <v>0</v>
       </c>
       <c r="BA38" t="n">
-        <v>818430.0159999999</v>
+        <v>0</v>
       </c>
       <c r="BB38" t="n">
-        <v>246088.992</v>
+        <v>0</v>
       </c>
       <c r="BC38" t="n">
-        <v>763097.9840000001</v>
+        <v>11520</v>
       </c>
       <c r="BD38" t="n">
-        <v>619468.992</v>
+        <v>16460</v>
       </c>
       <c r="BE38" t="n">
-        <v>594465.9840000001</v>
+        <v>11556</v>
       </c>
       <c r="BF38" t="n">
-        <v>569302.976</v>
+        <v>8372</v>
       </c>
       <c r="BG38" t="n">
-        <v>542344</v>
+        <v>9007</v>
       </c>
       <c r="BH38" t="n">
         <v>9287</v>
@@ -7985,7 +7985,7 @@
         <v>53773</v>
       </c>
       <c r="AT40" t="n">
-        <v>216488</v>
+        <v>52453</v>
       </c>
       <c r="AU40" t="n">
         <v>54243</v>
@@ -8000,31 +8000,31 @@
         <v>88675</v>
       </c>
       <c r="AY40" t="n">
-        <v>227966</v>
+        <v>104434</v>
       </c>
       <c r="AZ40" t="n">
-        <v>222103.008</v>
+        <v>206295.008</v>
       </c>
       <c r="BA40" t="n">
-        <v>209423.008</v>
+        <v>185847.008</v>
       </c>
       <c r="BB40" t="n">
-        <v>186852</v>
+        <v>189907.008</v>
       </c>
       <c r="BC40" t="n">
-        <v>196118</v>
+        <v>162428</v>
       </c>
       <c r="BD40" t="n">
-        <v>186276</v>
+        <v>200252</v>
       </c>
       <c r="BE40" t="n">
-        <v>163536</v>
+        <v>206214</v>
       </c>
       <c r="BF40" t="n">
-        <v>113177</v>
+        <v>158180.992</v>
       </c>
       <c r="BG40" t="n">
-        <v>110257</v>
+        <v>166054</v>
       </c>
       <c r="BH40" t="n">
         <v>73639</v>
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="AT41" t="n">
-        <v>0</v>
+        <v>3590</v>
       </c>
       <c r="AU41" t="n">
         <v>3585</v>
@@ -8546,7 +8546,7 @@
         <v>35236</v>
       </c>
       <c r="AT43" t="n">
-        <v>134964</v>
+        <v>35670</v>
       </c>
       <c r="AU43" t="n">
         <v>34580</v>
@@ -8561,31 +8561,31 @@
         <v>4839</v>
       </c>
       <c r="AY43" t="n">
-        <v>113649</v>
+        <v>2961</v>
       </c>
       <c r="AZ43" t="n">
-        <v>118544</v>
+        <v>8057</v>
       </c>
       <c r="BA43" t="n">
-        <v>106241</v>
+        <v>6767</v>
       </c>
       <c r="BB43" t="n">
-        <v>110856</v>
+        <v>5561</v>
       </c>
       <c r="BC43" t="n">
-        <v>142971.008</v>
+        <v>3858</v>
       </c>
       <c r="BD43" t="n">
-        <v>129568</v>
+        <v>4905</v>
       </c>
       <c r="BE43" t="n">
-        <v>140212</v>
+        <v>4905</v>
       </c>
       <c r="BF43" t="n">
-        <v>46633</v>
+        <v>4905</v>
       </c>
       <c r="BG43" t="n">
-        <v>34129</v>
+        <v>4905</v>
       </c>
       <c r="BH43" t="n">
         <v>6416</v>
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="AT46" t="n">
-        <v>8316</v>
+        <v>0</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -9122,31 +9122,31 @@
         <v>0</v>
       </c>
       <c r="AY46" t="n">
-        <v>-1365</v>
+        <v>0</v>
       </c>
       <c r="AZ46" t="n">
-        <v>-319</v>
+        <v>0</v>
       </c>
       <c r="BA46" t="n">
-        <v>968</v>
+        <v>0</v>
       </c>
       <c r="BB46" t="n">
-        <v>547</v>
+        <v>0</v>
       </c>
       <c r="BC46" t="n">
-        <v>974</v>
+        <v>0</v>
       </c>
       <c r="BD46" t="n">
-        <v>3123</v>
+        <v>0</v>
       </c>
       <c r="BE46" t="n">
-        <v>4267</v>
+        <v>0</v>
       </c>
       <c r="BF46" t="n">
-        <v>6114</v>
+        <v>0</v>
       </c>
       <c r="BG46" t="n">
-        <v>6673</v>
+        <v>0</v>
       </c>
       <c r="BH46" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>-248956</v>
       </c>
       <c r="AT47" t="n">
-        <v>262635.008</v>
+        <v>-251019.008</v>
       </c>
       <c r="AU47" t="n">
         <v>-263291.008</v>
@@ -9309,31 +9309,31 @@
         <v>-75136</v>
       </c>
       <c r="AY47" t="n">
-        <v>135329</v>
+        <v>44584</v>
       </c>
       <c r="AZ47" t="n">
-        <v>13115</v>
+        <v>106971</v>
       </c>
       <c r="BA47" t="n">
-        <v>-72300</v>
+        <v>118646</v>
       </c>
       <c r="BB47" t="n">
-        <v>-183581</v>
+        <v>101086</v>
       </c>
       <c r="BC47" t="n">
-        <v>-296026</v>
+        <v>124647</v>
       </c>
       <c r="BD47" t="n">
-        <v>-395587</v>
+        <v>97000</v>
       </c>
       <c r="BE47" t="n">
-        <v>-452569.016</v>
+        <v>76911</v>
       </c>
       <c r="BF47" t="n">
-        <v>-516453.008</v>
+        <v>119223</v>
       </c>
       <c r="BG47" t="n">
-        <v>-636418.024</v>
+        <v>140012.992</v>
       </c>
       <c r="BH47" t="n">
         <v>317120</v>
@@ -9481,7 +9481,7 @@
         <v>28047</v>
       </c>
       <c r="AT48" t="n">
-        <v>1300632.96</v>
+        <v>28047</v>
       </c>
       <c r="AU48" t="n">
         <v>28047</v>
@@ -9496,31 +9496,31 @@
         <v>71247</v>
       </c>
       <c r="AY48" t="n">
-        <v>1581004.032</v>
+        <v>224516</v>
       </c>
       <c r="AZ48" t="n">
-        <v>1581004.032</v>
+        <v>224516</v>
       </c>
       <c r="BA48" t="n">
-        <v>1581004.032</v>
+        <v>224516</v>
       </c>
       <c r="BB48" t="n">
-        <v>1581004.032</v>
+        <v>224516</v>
       </c>
       <c r="BC48" t="n">
-        <v>1581004.032</v>
+        <v>294516</v>
       </c>
       <c r="BD48" t="n">
-        <v>1581004.032</v>
+        <v>294516</v>
       </c>
       <c r="BE48" t="n">
-        <v>1581004.032</v>
+        <v>294516</v>
       </c>
       <c r="BF48" t="n">
-        <v>1760786.944</v>
+        <v>294516</v>
       </c>
       <c r="BG48" t="n">
-        <v>1760786.944</v>
+        <v>350436</v>
       </c>
       <c r="BH48" t="n">
         <v>565441.9840000001</v>
@@ -9668,7 +9668,7 @@
         <v>0</v>
       </c>
       <c r="AT49" t="n">
-        <v>1002553.024</v>
+        <v>0</v>
       </c>
       <c r="AU49" t="n">
         <v>0</v>
@@ -9683,31 +9683,31 @@
         <v>0</v>
       </c>
       <c r="AY49" t="n">
-        <v>1053222.976</v>
+        <v>0</v>
       </c>
       <c r="AZ49" t="n">
-        <v>1052688</v>
+        <v>0</v>
       </c>
       <c r="BA49" t="n">
-        <v>1052920</v>
+        <v>0</v>
       </c>
       <c r="BB49" t="n">
-        <v>1053427.008</v>
+        <v>0</v>
       </c>
       <c r="BC49" t="n">
-        <v>1054025.024</v>
+        <v>0</v>
       </c>
       <c r="BD49" t="n">
-        <v>1054956.992</v>
+        <v>0</v>
       </c>
       <c r="BE49" t="n">
-        <v>1055595.008</v>
+        <v>0</v>
       </c>
       <c r="BF49" t="n">
-        <v>1056233.024</v>
+        <v>0</v>
       </c>
       <c r="BG49" t="n">
-        <v>1056873.024</v>
+        <v>0</v>
       </c>
       <c r="BH49" t="n">
         <v>0</v>
@@ -9855,7 +9855,7 @@
         <v>6979</v>
       </c>
       <c r="AT50" t="n">
-        <v>0</v>
+        <v>6969</v>
       </c>
       <c r="AU50" t="n">
         <v>6974</v>
@@ -10229,7 +10229,7 @@
         <v>-283982.016</v>
       </c>
       <c r="AT52" t="n">
-        <v>-2040551.04</v>
+        <v>-286035.008</v>
       </c>
       <c r="AU52" t="n">
         <v>-298312</v>
@@ -10244,31 +10244,31 @@
         <v>-153312.992</v>
       </c>
       <c r="AY52" t="n">
-        <v>-2498897.92</v>
+        <v>-179932</v>
       </c>
       <c r="AZ52" t="n">
-        <v>-2620577.024</v>
+        <v>-117545</v>
       </c>
       <c r="BA52" t="n">
-        <v>-2706224.128</v>
+        <v>-105870</v>
       </c>
       <c r="BB52" t="n">
-        <v>-2818011.904</v>
+        <v>-123430</v>
       </c>
       <c r="BC52" t="n">
-        <v>-2931055.104</v>
+        <v>-169868.992</v>
       </c>
       <c r="BD52" t="n">
-        <v>-3031547.904</v>
+        <v>-197516</v>
       </c>
       <c r="BE52" t="n">
-        <v>-3089167.872</v>
+        <v>-217604.992</v>
       </c>
       <c r="BF52" t="n">
-        <v>-3333473.024</v>
+        <v>-175292.992</v>
       </c>
       <c r="BG52" t="n">
-        <v>-3454077.952</v>
+        <v>-210423.008</v>
       </c>
       <c r="BH52" t="n">
         <v>-248322</v>
@@ -11320,7 +11320,7 @@
         <v>-284</v>
       </c>
       <c r="AT59" t="n">
-        <v>-22175</v>
+        <v>0</v>
       </c>
       <c r="AU59" t="n">
         <v>0</v>
@@ -11335,31 +11335,31 @@
         <v>9427</v>
       </c>
       <c r="AY59" t="n">
-        <v>33036</v>
+        <v>57652</v>
       </c>
       <c r="AZ59" t="n">
-        <v>62730.992</v>
+        <v>70556</v>
       </c>
       <c r="BA59" t="n">
-        <v>27278</v>
+        <v>83994</v>
       </c>
       <c r="BB59" t="n">
-        <v>78009</v>
+        <v>110476</v>
       </c>
       <c r="BC59" t="n">
-        <v>77124</v>
+        <v>119442.992</v>
       </c>
       <c r="BD59" t="n">
-        <v>82723</v>
+        <v>154822</v>
       </c>
       <c r="BE59" t="n">
-        <v>95136</v>
+        <v>147916</v>
       </c>
       <c r="BF59" t="n">
-        <v>85637</v>
+        <v>68298</v>
       </c>
       <c r="BG59" t="n">
-        <v>122358</v>
+        <v>58783.008</v>
       </c>
       <c r="BH59" t="n">
         <v>50336</v>
@@ -11505,7 +11505,7 @@
         <v>0</v>
       </c>
       <c r="AT60" t="n">
-        <v>-21266</v>
+        <v>0</v>
       </c>
       <c r="AU60" t="n">
         <v>0</v>
@@ -11520,31 +11520,31 @@
         <v>-8505</v>
       </c>
       <c r="AY60" t="n">
-        <v>-58009</v>
+        <v>-36420</v>
       </c>
       <c r="AZ60" t="n">
-        <v>-51572</v>
+        <v>-67057</v>
       </c>
       <c r="BA60" t="n">
-        <v>-26903</v>
+        <v>-87721</v>
       </c>
       <c r="BB60" t="n">
-        <v>-71101</v>
+        <v>-115191</v>
       </c>
       <c r="BC60" t="n">
-        <v>-70032</v>
+        <v>-104215</v>
       </c>
       <c r="BD60" t="n">
-        <v>-61610</v>
+        <v>-136360</v>
       </c>
       <c r="BE60" t="n">
-        <v>-63225</v>
+        <v>-133945</v>
       </c>
       <c r="BF60" t="n">
-        <v>-54792</v>
+        <v>-59557</v>
       </c>
       <c r="BG60" t="n">
-        <v>-79276</v>
+        <v>-57861.008</v>
       </c>
       <c r="BH60" t="n">
         <v>-35989</v>
@@ -11690,7 +11690,7 @@
         <v>-284</v>
       </c>
       <c r="AT61" t="n">
-        <v>-43441</v>
+        <v>0</v>
       </c>
       <c r="AU61" t="n">
         <v>0</v>
@@ -11705,31 +11705,31 @@
         <v>922</v>
       </c>
       <c r="AY61" t="n">
-        <v>-24973</v>
+        <v>21232</v>
       </c>
       <c r="AZ61" t="n">
-        <v>11159</v>
+        <v>3499</v>
       </c>
       <c r="BA61" t="n">
-        <v>375</v>
+        <v>-3727</v>
       </c>
       <c r="BB61" t="n">
-        <v>6908</v>
+        <v>-4715</v>
       </c>
       <c r="BC61" t="n">
-        <v>7092</v>
+        <v>15228</v>
       </c>
       <c r="BD61" t="n">
-        <v>21113</v>
+        <v>18462</v>
       </c>
       <c r="BE61" t="n">
-        <v>31911</v>
+        <v>13971</v>
       </c>
       <c r="BF61" t="n">
-        <v>30845</v>
+        <v>8741</v>
       </c>
       <c r="BG61" t="n">
-        <v>43082</v>
+        <v>922</v>
       </c>
       <c r="BH61" t="n">
         <v>14347</v>
@@ -11875,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="AT62" t="n">
-        <v>-4205</v>
+        <v>0</v>
       </c>
       <c r="AU62" t="n">
         <v>0</v>
@@ -11890,31 +11890,31 @@
         <v>0</v>
       </c>
       <c r="AY62" t="n">
-        <v>-10267</v>
+        <v>0</v>
       </c>
       <c r="AZ62" t="n">
-        <v>-12850</v>
+        <v>0</v>
       </c>
       <c r="BA62" t="n">
-        <v>-7138</v>
+        <v>0</v>
       </c>
       <c r="BB62" t="n">
-        <v>-9649</v>
+        <v>0</v>
       </c>
       <c r="BC62" t="n">
-        <v>-9269</v>
+        <v>0</v>
       </c>
       <c r="BD62" t="n">
-        <v>-11913</v>
+        <v>0</v>
       </c>
       <c r="BE62" t="n">
-        <v>-7451</v>
+        <v>0</v>
       </c>
       <c r="BF62" t="n">
-        <v>-8214</v>
+        <v>0</v>
       </c>
       <c r="BG62" t="n">
-        <v>-7361</v>
+        <v>0</v>
       </c>
       <c r="BH62" t="n">
         <v>0</v>
@@ -12060,7 +12060,7 @@
         <v>-2734</v>
       </c>
       <c r="AT63" t="n">
-        <v>-16686</v>
+        <v>0</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -12075,31 +12075,31 @@
         <v>-6041</v>
       </c>
       <c r="AY63" t="n">
-        <v>-15613</v>
+        <v>-7568</v>
       </c>
       <c r="AZ63" t="n">
-        <v>-17778</v>
+        <v>-20513</v>
       </c>
       <c r="BA63" t="n">
-        <v>-15657</v>
+        <v>-19780</v>
       </c>
       <c r="BB63" t="n">
-        <v>-15784</v>
+        <v>-40650</v>
       </c>
       <c r="BC63" t="n">
-        <v>-15584</v>
+        <v>-48167</v>
       </c>
       <c r="BD63" t="n">
-        <v>-25170</v>
+        <v>-37854</v>
       </c>
       <c r="BE63" t="n">
-        <v>-15469</v>
+        <v>-28786</v>
       </c>
       <c r="BF63" t="n">
-        <v>-13064</v>
+        <v>-35523</v>
       </c>
       <c r="BG63" t="n">
-        <v>-19401</v>
+        <v>-36748.008</v>
       </c>
       <c r="BH63" t="n">
         <v>-32434</v>
@@ -12246,31 +12246,31 @@
         <v>0</v>
       </c>
       <c r="AY64" t="n">
-        <v>-1591</v>
+        <v>0</v>
       </c>
       <c r="AZ64" t="n">
-        <v>7646</v>
+        <v>0</v>
       </c>
       <c r="BA64" t="n">
-        <v>-1373</v>
+        <v>0</v>
       </c>
       <c r="BB64" t="n">
-        <v>-1307</v>
+        <v>0</v>
       </c>
       <c r="BC64" t="n">
-        <v>-1049</v>
+        <v>0</v>
       </c>
       <c r="BD64" t="n">
-        <v>3729</v>
+        <v>0</v>
       </c>
       <c r="BE64" t="n">
-        <v>-420</v>
+        <v>0</v>
       </c>
       <c r="BF64" t="n">
-        <v>-758</v>
+        <v>0</v>
       </c>
       <c r="BG64" t="n">
-        <v>-561</v>
+        <v>0</v>
       </c>
       <c r="BH64" t="n">
         <v>0</v>
@@ -12431,31 +12431,31 @@
         <v>-4866</v>
       </c>
       <c r="AY65" t="n">
-        <v>0</v>
+        <v>-177820</v>
       </c>
       <c r="AZ65" t="n">
-        <v>-9083</v>
+        <v>4752</v>
       </c>
       <c r="BA65" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="BB65" t="n">
         <v>0</v>
       </c>
       <c r="BC65" t="n">
-        <v>0</v>
+        <v>-4787</v>
       </c>
       <c r="BD65" t="n">
-        <v>-6158</v>
+        <v>7735</v>
       </c>
       <c r="BE65" t="n">
-        <v>0</v>
+        <v>45869</v>
       </c>
       <c r="BF65" t="n">
         <v>0</v>
       </c>
       <c r="BG65" t="n">
-        <v>0</v>
+        <v>-53604</v>
       </c>
       <c r="BH65" t="n">
         <v>299</v>
@@ -12601,7 +12601,7 @@
         <v>0</v>
       </c>
       <c r="AT66" t="n">
-        <v>-25798</v>
+        <v>0</v>
       </c>
       <c r="AU66" t="n">
         <v>0</v>
@@ -12616,31 +12616,31 @@
         <v>0</v>
       </c>
       <c r="AY66" t="n">
-        <v>-35797</v>
+        <v>257154</v>
       </c>
       <c r="AZ66" t="n">
-        <v>-47650</v>
+        <v>0</v>
       </c>
       <c r="BA66" t="n">
-        <v>-11392</v>
+        <v>0</v>
       </c>
       <c r="BB66" t="n">
-        <v>-34667</v>
+        <v>-16977</v>
       </c>
       <c r="BC66" t="n">
-        <v>-32576</v>
+        <v>8294</v>
       </c>
       <c r="BD66" t="n">
-        <v>-25105</v>
+        <v>0</v>
       </c>
       <c r="BE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF66" t="n">
         <v>-8327</v>
       </c>
-      <c r="BF66" t="n">
-        <v>-179998</v>
-      </c>
       <c r="BG66" t="n">
-        <v>-13869</v>
+        <v>14959</v>
       </c>
       <c r="BH66" t="n">
         <v>0</v>
@@ -12801,31 +12801,31 @@
         <v>0</v>
       </c>
       <c r="AY67" t="n">
-        <v>-522</v>
+        <v>0</v>
       </c>
       <c r="AZ67" t="n">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="BA67" t="n">
-        <v>-1475</v>
+        <v>-4892</v>
       </c>
       <c r="BB67" t="n">
-        <v>1201</v>
+        <v>0</v>
       </c>
       <c r="BC67" t="n">
-        <v>875</v>
+        <v>4855</v>
       </c>
       <c r="BD67" t="n">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="BE67" t="n">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="BF67" t="n">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="BG67" t="n">
-        <v>1104</v>
+        <v>0</v>
       </c>
       <c r="BH67" t="n">
         <v>0</v>
@@ -12971,7 +12971,7 @@
         <v>-849</v>
       </c>
       <c r="AT68" t="n">
-        <v>1427</v>
+        <v>0</v>
       </c>
       <c r="AU68" t="n">
         <v>0</v>
@@ -12986,31 +12986,31 @@
         <v>-232</v>
       </c>
       <c r="AY68" t="n">
-        <v>-22087</v>
+        <v>-1259</v>
       </c>
       <c r="AZ68" t="n">
-        <v>-51829</v>
+        <v>-2929</v>
       </c>
       <c r="BA68" t="n">
-        <v>-47599</v>
+        <v>-2652</v>
       </c>
       <c r="BB68" t="n">
-        <v>-56456</v>
+        <v>-5140</v>
       </c>
       <c r="BC68" t="n">
-        <v>-60858</v>
+        <v>-14115</v>
       </c>
       <c r="BD68" t="n">
-        <v>-54651.992</v>
+        <v>-10282</v>
       </c>
       <c r="BE68" t="n">
-        <v>-54658</v>
+        <v>-7892</v>
       </c>
       <c r="BF68" t="n">
-        <v>-68626</v>
+        <v>-8245</v>
       </c>
       <c r="BG68" t="n">
-        <v>-72538</v>
+        <v>-12912</v>
       </c>
       <c r="BH68" t="n">
         <v>-4843</v>
@@ -13156,7 +13156,7 @@
         <v>1</v>
       </c>
       <c r="AT69" t="n">
-        <v>1427</v>
+        <v>0</v>
       </c>
       <c r="AU69" t="n">
         <v>0</v>
@@ -13171,31 +13171,31 @@
         <v>16</v>
       </c>
       <c r="AY69" t="n">
-        <v>2281</v>
+        <v>-5</v>
       </c>
       <c r="AZ69" t="n">
-        <v>5747</v>
+        <v>50</v>
       </c>
       <c r="BA69" t="n">
-        <v>2138</v>
+        <v>671</v>
       </c>
       <c r="BB69" t="n">
-        <v>2406</v>
+        <v>199</v>
       </c>
       <c r="BC69" t="n">
-        <v>3143</v>
+        <v>528</v>
       </c>
       <c r="BD69" t="n">
-        <v>4776</v>
+        <v>420</v>
       </c>
       <c r="BE69" t="n">
-        <v>5167</v>
+        <v>546</v>
       </c>
       <c r="BF69" t="n">
-        <v>4303</v>
+        <v>86</v>
       </c>
       <c r="BG69" t="n">
-        <v>4138</v>
+        <v>107</v>
       </c>
       <c r="BH69" t="n">
         <v>1767</v>
@@ -13356,31 +13356,31 @@
         <v>-248</v>
       </c>
       <c r="AY70" t="n">
-        <v>-24368</v>
+        <v>-1254</v>
       </c>
       <c r="AZ70" t="n">
-        <v>-57576</v>
+        <v>-2979</v>
       </c>
       <c r="BA70" t="n">
-        <v>-49737</v>
+        <v>-3323</v>
       </c>
       <c r="BB70" t="n">
-        <v>-58862</v>
+        <v>-5339</v>
       </c>
       <c r="BC70" t="n">
-        <v>-64001</v>
+        <v>-14643</v>
       </c>
       <c r="BD70" t="n">
-        <v>-59428</v>
+        <v>-10702</v>
       </c>
       <c r="BE70" t="n">
-        <v>-59825</v>
+        <v>-8438</v>
       </c>
       <c r="BF70" t="n">
-        <v>-72929</v>
+        <v>-8331</v>
       </c>
       <c r="BG70" t="n">
-        <v>-76676</v>
+        <v>-13019</v>
       </c>
       <c r="BH70" t="n">
         <v>-6610</v>
@@ -13763,7 +13763,7 @@
         <v>-2586</v>
       </c>
       <c r="AT74" t="n">
-        <v>-88703</v>
+        <v>0</v>
       </c>
       <c r="AU74" t="n">
         <v>0</v>
@@ -13778,31 +13778,31 @@
         <v>-10217</v>
       </c>
       <c r="AY74" t="n">
-        <v>-110850</v>
+        <v>91739</v>
       </c>
       <c r="AZ74" t="n">
-        <v>-118901.008</v>
+        <v>-15191</v>
       </c>
       <c r="BA74" t="n">
-        <v>-84259</v>
+        <v>-31016</v>
       </c>
       <c r="BB74" t="n">
-        <v>-109754</v>
+        <v>-67482</v>
       </c>
       <c r="BC74" t="n">
-        <v>-111369</v>
+        <v>-38691.992</v>
       </c>
       <c r="BD74" t="n">
-        <v>-97738</v>
+        <v>-21939</v>
       </c>
       <c r="BE74" t="n">
-        <v>-53817</v>
+        <v>23162</v>
       </c>
       <c r="BF74" t="n">
-        <v>-239480.992</v>
+        <v>-43354</v>
       </c>
       <c r="BG74" t="n">
-        <v>-69544</v>
+        <v>-87383</v>
       </c>
       <c r="BH74" t="n">
         <v>-22631</v>
@@ -13963,31 +13963,31 @@
         <v>0</v>
       </c>
       <c r="AY75" t="n">
-        <v>-1494</v>
+        <v>239</v>
       </c>
       <c r="AZ75" t="n">
-        <v>-1682</v>
+        <v>-299</v>
       </c>
       <c r="BA75" t="n">
-        <v>-1026</v>
+        <v>-329</v>
       </c>
       <c r="BB75" t="n">
-        <v>-1518</v>
+        <v>628</v>
       </c>
       <c r="BC75" t="n">
-        <v>-1981</v>
+        <v>0</v>
       </c>
       <c r="BD75" t="n">
-        <v>-3070</v>
+        <v>-2562</v>
       </c>
       <c r="BE75" t="n">
-        <v>-3621</v>
+        <v>1211</v>
       </c>
       <c r="BF75" t="n">
-        <v>-4164</v>
+        <v>0</v>
       </c>
       <c r="BG75" t="n">
-        <v>-5545</v>
+        <v>1351</v>
       </c>
       <c r="BH75" t="n">
         <v>0</v>
@@ -14148,31 +14148,31 @@
         <v>0</v>
       </c>
       <c r="AY76" t="n">
-        <v>0</v>
+        <v>-29593</v>
       </c>
       <c r="AZ76" t="n">
-        <v>0</v>
+        <v>27165</v>
       </c>
       <c r="BA76" t="n">
-        <v>0</v>
+        <v>9746</v>
       </c>
       <c r="BB76" t="n">
-        <v>0</v>
+        <v>25966</v>
       </c>
       <c r="BC76" t="n">
-        <v>0</v>
+        <v>9532</v>
       </c>
       <c r="BD76" t="n">
-        <v>0</v>
+        <v>4412</v>
       </c>
       <c r="BE76" t="n">
-        <v>0</v>
+        <v>17939</v>
       </c>
       <c r="BF76" t="n">
-        <v>0</v>
+        <v>8224</v>
       </c>
       <c r="BG76" t="n">
-        <v>0</v>
+        <v>48134</v>
       </c>
       <c r="BH76" t="n">
         <v>5753</v>
@@ -14476,7 +14476,7 @@
         <v>0</v>
       </c>
       <c r="AT79" t="n">
-        <v>87696</v>
+        <v>0</v>
       </c>
       <c r="AU79" t="n">
         <v>0</v>
@@ -14491,31 +14491,31 @@
         <v>0</v>
       </c>
       <c r="AY79" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="AZ79" t="n">
-        <v>-1096</v>
+        <v>0</v>
       </c>
       <c r="BA79" t="n">
-        <v>-362</v>
+        <v>0</v>
       </c>
       <c r="BB79" t="n">
-        <v>-516</v>
+        <v>0</v>
       </c>
       <c r="BC79" t="n">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="BD79" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="BE79" t="n">
-        <v>-182</v>
+        <v>0</v>
       </c>
       <c r="BF79" t="n">
-        <v>-660</v>
+        <v>0</v>
       </c>
       <c r="BG79" t="n">
-        <v>-565</v>
+        <v>0</v>
       </c>
       <c r="BH79" t="n">
         <v>0</v>
@@ -14661,7 +14661,7 @@
         <v>-2597</v>
       </c>
       <c r="AT80" t="n">
-        <v>-1007</v>
+        <v>0</v>
       </c>
       <c r="AU80" t="n">
         <v>0</v>
@@ -14676,31 +14676,31 @@
         <v>-10217</v>
       </c>
       <c r="AY80" t="n">
-        <v>-110094</v>
+        <v>62385.008</v>
       </c>
       <c r="AZ80" t="n">
-        <v>-121679.016</v>
+        <v>11675</v>
       </c>
       <c r="BA80" t="n">
-        <v>-85647</v>
+        <v>-21599</v>
       </c>
       <c r="BB80" t="n">
-        <v>-111788</v>
+        <v>-40888</v>
       </c>
       <c r="BC80" t="n">
-        <v>-113043</v>
+        <v>-29160</v>
       </c>
       <c r="BD80" t="n">
-        <v>-100493.008</v>
+        <v>-20089</v>
       </c>
       <c r="BE80" t="n">
-        <v>-57620</v>
+        <v>42312</v>
       </c>
       <c r="BF80" t="n">
-        <v>-244304.992</v>
+        <v>-35130</v>
       </c>
       <c r="BG80" t="n">
-        <v>-55042</v>
+        <v>-37898</v>
       </c>
       <c r="BH80" t="n">
         <v>-16878</v>
